--- a/data/input/Overview - Yes Aligned.xlsx
+++ b/data/input/Overview - Yes Aligned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://roberthalfeur-my.sharepoint.com/personal/hottun01_protiviti_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safmuk01\data-science-projects\ED-A\policy-chunker\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0270926-432A-44CF-9440-1352B3144F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A3162F-DD4C-4983-B510-66A2B68EA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7174B34F-980C-4111-95EA-A62B2BD2049B}"/>
   </bookViews>
@@ -511,13 +511,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="52.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
